--- a/addons/custom/purchase_request/static/src/xlsx/template_pr.xlsx
+++ b/addons/custom/purchase_request/static/src/xlsx/template_pr.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gitlab\erp_forlife\custom_addons\purchase_request\static\src\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECT\erp_forlife\custom_addons\purchase_request\static\src\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12720"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,25 +19,14 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
-  <si>
-    <t>Derpartment</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+  <si>
+    <t>Department</t>
   </si>
   <si>
     <t>Request date</t>
@@ -46,37 +35,22 @@
     <t>Expected Arrival</t>
   </si>
   <si>
-    <t>Product</t>
-  </si>
-  <si>
-    <t>Asset description</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>Purchase Unit</t>
-  </si>
-  <si>
-    <t>Quantity of Exchange</t>
-  </si>
-  <si>
-    <t>Vendor Code</t>
-  </si>
-  <si>
-    <t>Production Order Code</t>
-  </si>
-  <si>
-    <t>manager</t>
-  </si>
-  <si>
-    <t>A00001</t>
+    <t>Order Lines/Product</t>
+  </si>
+  <si>
+    <t>Administrator</t>
+  </si>
+  <si>
+    <t>Administration</t>
+  </si>
+  <si>
+    <t>Ghế</t>
   </si>
   <si>
     <t>Tài sản</t>
   </si>
   <si>
-    <t>Thùng</t>
+    <t>g</t>
   </si>
   <si>
     <t>V0001</t>
@@ -85,32 +59,38 @@
     <t>SX0001</t>
   </si>
   <si>
-    <t>B00001</t>
-  </si>
-  <si>
-    <t>Cái</t>
-  </si>
-  <si>
-    <t>V0002</t>
-  </si>
-  <si>
-    <t>D00001</t>
-  </si>
-  <si>
-    <t>SX0002</t>
-  </si>
-  <si>
-    <t>C00001</t>
+    <t>Order Lines/Asset description</t>
+  </si>
+  <si>
+    <t>Order Lines/Vendor Code</t>
+  </si>
+  <si>
+    <t>Order Lines/Production Order Code</t>
+  </si>
+  <si>
+    <t>Order Lines/Request date</t>
+  </si>
+  <si>
+    <t>Order Lines/Exchange Quantity</t>
+  </si>
+  <si>
+    <t>Order Lines/UOM Purchase</t>
+  </si>
+  <si>
+    <t>Order Lines/Quantity Order</t>
   </si>
   <si>
     <t>Employee</t>
+  </si>
+  <si>
+    <t>Order Lines/Quantity Purchase</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,6 +103,12 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -157,11 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -197,7 +184,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -209,7 +196,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -256,23 +243,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -308,23 +278,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -480,7 +433,7 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,11 +442,10 @@
     <col min="2" max="2" width="18.140625" customWidth="1"/>
     <col min="3" max="3" width="18.85546875" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" customWidth="1"/>
-    <col min="9" max="9" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" customWidth="1"/>
+    <col min="6" max="6" width="27" customWidth="1"/>
+    <col min="7" max="8" width="21.5703125" customWidth="1"/>
+    <col min="9" max="9" width="25.28515625" customWidth="1"/>
     <col min="10" max="10" width="16.140625" customWidth="1"/>
     <col min="11" max="11" width="25" customWidth="1"/>
     <col min="12" max="12" width="15.28515625" customWidth="1"/>
@@ -502,7 +454,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -517,338 +469,88 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>2</v>
+        <v>14</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="4">
-        <v>44917</v>
-      </c>
-      <c r="D2" s="4">
-        <v>44925</v>
+        <v>5</v>
+      </c>
+      <c r="C2" s="5">
+        <v>44896</v>
+      </c>
+      <c r="D2" s="5">
+        <v>44896</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G2">
         <v>10</v>
       </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2">
+      <c r="H2">
         <v>8</v>
       </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
       <c r="J2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="4">
+        <v>9</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="5">
         <v>44917</v>
       </c>
-      <c r="M2" s="4">
-        <v>44925</v>
-      </c>
+      <c r="M2" s="5"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3">
-        <v>10</v>
-      </c>
-      <c r="H3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="4">
-        <v>44917</v>
-      </c>
-      <c r="M3" s="4">
-        <v>44926</v>
-      </c>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="4">
-        <v>44917</v>
-      </c>
-      <c r="D4" s="4">
-        <v>44923</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4">
-        <v>10</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" s="4">
-        <v>44917</v>
-      </c>
-      <c r="M4" s="4">
-        <v>44925</v>
-      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5">
-        <v>10</v>
-      </c>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" s="4">
-        <v>44917</v>
-      </c>
-      <c r="M5" s="4">
-        <v>44925</v>
-      </c>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010015570558A7E4E34C9FC908F8AA8CCE03" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="32ce1a6b92a0e7844a2f1afaa1c43b28">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6a70de89-a9ee-4e6f-a4d0-6241823bbbed" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1127efdf92ffa2ac77f72833d3bd29d9" ns2:_="">
-    <xsd:import namespace="6a70de89-a9ee-4e6f-a4d0-6241823bbbed"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="6a70de89-a9ee-4e6f-a4d0-6241823bbbed" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D2373BD-E8D7-4E09-8E17-6BE54E7C8C42}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="6a70de89-a9ee-4e6f-a4d0-6241823bbbed"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2CB4B90-2CCD-4046-80D8-E59190453519}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E098A2F3-1B1E-4602-A5D7-0DB2E66999EA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/addons/custom/purchase_request/static/src/xlsx/template_pr.xlsx
+++ b/addons/custom/purchase_request/static/src/xlsx/template_pr.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECT\erp_forlife\custom_addons\purchase_request\static\src\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taint54\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5874BFCD-4E02-489E-8D59-5C3A65988CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12480"/>
+    <workbookView xWindow="31050" yWindow="4395" windowWidth="22425" windowHeight="11280" xr2:uid="{7C4A41F9-7FA3-4F7E-A9C2-9164BB464FCF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Department</t>
   </si>
@@ -38,31 +39,16 @@
     <t>Order Lines/Product</t>
   </si>
   <si>
-    <t>Administrator</t>
-  </si>
-  <si>
-    <t>Administration</t>
-  </si>
-  <si>
-    <t>Ghế</t>
-  </si>
-  <si>
-    <t>Tài sản</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>V0001</t>
-  </si>
-  <si>
-    <t>SX0001</t>
-  </si>
-  <si>
     <t>Order Lines/Asset description</t>
   </si>
   <si>
-    <t>Order Lines/Vendor Code</t>
+    <t>Order Lines/Quantity Purchase</t>
+  </si>
+  <si>
+    <t>Order Lines/Exchange Quantity</t>
+  </si>
+  <si>
+    <t>Order Lines/UOM Purchase</t>
   </si>
   <si>
     <t>Order Lines/Production Order Code</t>
@@ -71,25 +57,22 @@
     <t>Order Lines/Request date</t>
   </si>
   <si>
-    <t>Order Lines/Exchange Quantity</t>
-  </si>
-  <si>
-    <t>Order Lines/UOM Purchase</t>
-  </si>
-  <si>
     <t>Order Lines/Quantity Order</t>
   </si>
   <si>
-    <t>Employee</t>
-  </si>
-  <si>
-    <t>Order Lines/Quantity Purchase</t>
+    <t>User request</t>
+  </si>
+  <si>
+    <t>Order Lines/Type</t>
+  </si>
+  <si>
+    <t>Order Lines/Vendor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -184,7 +167,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -196,7 +179,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -243,6 +226,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -278,6 +278,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -429,11 +446,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A706F1E0-1004-4860-A018-3ED034742AF2}">
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,19 +459,20 @@
     <col min="2" max="2" width="18.140625" customWidth="1"/>
     <col min="3" max="3" width="18.85546875" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="24.5703125" customWidth="1"/>
-    <col min="6" max="6" width="27" customWidth="1"/>
-    <col min="7" max="8" width="21.5703125" customWidth="1"/>
-    <col min="9" max="9" width="25.28515625" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" customWidth="1"/>
-    <col min="11" max="11" width="25" customWidth="1"/>
-    <col min="12" max="12" width="15.28515625" customWidth="1"/>
-    <col min="13" max="13" width="18.7109375" customWidth="1"/>
+    <col min="5" max="6" width="24.5703125" customWidth="1"/>
+    <col min="7" max="7" width="27" customWidth="1"/>
+    <col min="8" max="8" width="36.5703125" customWidth="1"/>
+    <col min="9" max="9" width="21.5703125" customWidth="1"/>
+    <col min="10" max="10" width="25.28515625" customWidth="1"/>
+    <col min="11" max="11" width="27.5703125" customWidth="1"/>
+    <col min="12" max="12" width="25" customWidth="1"/>
+    <col min="13" max="13" width="33.28515625" customWidth="1"/>
+    <col min="14" max="14" width="28.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -469,88 +487,58 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>17</v>
+      <c r="L1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="5">
-        <v>44896</v>
-      </c>
-      <c r="D2" s="5">
-        <v>44896</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2">
-        <v>10</v>
-      </c>
-      <c r="H2">
-        <v>8</v>
-      </c>
-      <c r="I2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="5">
-        <v>44917</v>
-      </c>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="L2" s="5"/>
       <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K3" s="5"/>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
-      <c r="K4" s="5"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K5" s="5"/>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/addons/custom/purchase_request/static/src/xlsx/template_pr.xlsx
+++ b/addons/custom/purchase_request/static/src/xlsx/template_pr.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taint54\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECT\erp_forlife\custom_addons\purchase_request\static\src\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5874BFCD-4E02-489E-8D59-5C3A65988CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31050" yWindow="4395" windowWidth="22425" windowHeight="11280" xr2:uid="{7C4A41F9-7FA3-4F7E-A9C2-9164BB464FCF}"/>
+    <workbookView xWindow="31050" yWindow="4395" windowWidth="22425" windowHeight="11280"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -72,7 +71,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -85,7 +84,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -126,13 +125,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,11 +446,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A706F1E0-1004-4860-A018-3ED034742AF2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -519,7 +519,7 @@
       <c r="D2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
+      <c r="N2" s="6"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="L3" s="5"/>

--- a/addons/custom/purchase_request/static/src/xlsx/template_pr.xlsx
+++ b/addons/custom/purchase_request/static/src/xlsx/template_pr.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECT\erp_forlife\custom_addons\purchase_request\static\src\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\odoo1_6\erp_forlife\custom_addons\purchase_request\static\src\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C670069D-6CF4-4AD1-8CBA-64A74CBB6664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31050" yWindow="4395" windowWidth="22425" windowHeight="11280"/>
+    <workbookView xWindow="32025" yWindow="1200" windowWidth="25545" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Yêu cầu mua hàng" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -24,54 +25,78 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>Department</t>
-  </si>
-  <si>
-    <t>Request date</t>
-  </si>
-  <si>
-    <t>Expected Arrival</t>
-  </si>
-  <si>
-    <t>Order Lines/Product</t>
-  </si>
-  <si>
-    <t>Order Lines/Asset description</t>
-  </si>
-  <si>
-    <t>Order Lines/Quantity Purchase</t>
-  </si>
-  <si>
-    <t>Order Lines/Exchange Quantity</t>
-  </si>
-  <si>
-    <t>Order Lines/UOM Purchase</t>
-  </si>
-  <si>
-    <t>Order Lines/Production Order Code</t>
-  </si>
-  <si>
-    <t>Order Lines/Request date</t>
-  </si>
-  <si>
-    <t>Order Lines/Quantity Order</t>
-  </si>
-  <si>
-    <t>User request</t>
-  </si>
-  <si>
-    <t>Order Lines/Type</t>
-  </si>
-  <si>
-    <t>Order Lines/Vendor</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+  <si>
+    <t>Người yêu cầu</t>
+  </si>
+  <si>
+    <t>Phòng/ban</t>
+  </si>
+  <si>
+    <t>Mã vụ việc</t>
+  </si>
+  <si>
+    <t>Lệnh sản xuất</t>
+  </si>
+  <si>
+    <t>Trung tâm chi phí</t>
+  </si>
+  <si>
+    <t>Ngày yêu cầu</t>
+  </si>
+  <si>
+    <t>Hạn xử lý</t>
+  </si>
+  <si>
+    <t>Order Lines/Sản phẩm</t>
+  </si>
+  <si>
+    <t>Order Lines/Mô tả</t>
+  </si>
+  <si>
+    <t>Order Lines/Loại hàng hóa</t>
+  </si>
+  <si>
+    <t>Order Lines/Mô tả tài sản</t>
+  </si>
+  <si>
+    <t>Order Lines/Số lượng đặt mua</t>
+  </si>
+  <si>
+    <t>Order Lines/Số lượng quy đổi</t>
+  </si>
+  <si>
+    <t>Order Lines/Đơn vị mua</t>
+  </si>
+  <si>
+    <t>Order Lines/Số lượng</t>
+  </si>
+  <si>
+    <t>Order Lines/Nhà cung cấp</t>
+  </si>
+  <si>
+    <t>Order Lines/Lệnh sản xuất</t>
+  </si>
+  <si>
+    <t>Order Lines/Trung tâm chi phí</t>
+  </si>
+  <si>
+    <t>Order Lines/Ngày yêu cầu</t>
+  </si>
+  <si>
+    <t>Order Lines/Hạn xử lý</t>
+  </si>
+  <si>
+    <t>Order Lines/Số lượng đã đặt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yyyy;@"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -88,9 +113,10 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF9C5700"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -102,14 +128,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor rgb="FF70AD47"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF70AD47"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -122,19 +147,36 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -446,99 +488,120 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="6" width="24.5703125" customWidth="1"/>
-    <col min="7" max="7" width="27" customWidth="1"/>
-    <col min="8" max="8" width="36.5703125" customWidth="1"/>
-    <col min="9" max="9" width="21.5703125" customWidth="1"/>
-    <col min="10" max="10" width="25.28515625" customWidth="1"/>
-    <col min="11" max="11" width="27.5703125" customWidth="1"/>
-    <col min="12" max="12" width="25" customWidth="1"/>
-    <col min="13" max="13" width="33.28515625" customWidth="1"/>
-    <col min="14" max="14" width="28.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21" style="6" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="8" customWidth="1"/>
+    <col min="7" max="7" width="15" style="9" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" customWidth="1"/>
+    <col min="10" max="10" width="24.5703125" customWidth="1"/>
+    <col min="11" max="11" width="23.140625" customWidth="1"/>
+    <col min="12" max="12" width="28.85546875" customWidth="1"/>
+    <col min="13" max="13" width="27" customWidth="1"/>
+    <col min="14" max="14" width="23.28515625" customWidth="1"/>
+    <col min="15" max="15" width="19.5703125" customWidth="1"/>
+    <col min="16" max="17" width="23.85546875" customWidth="1"/>
+    <col min="18" max="18" width="30.42578125" customWidth="1"/>
+    <col min="19" max="19" width="25.28515625" customWidth="1"/>
+    <col min="20" max="20" width="21.28515625" customWidth="1"/>
+    <col min="21" max="21" width="28.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>10</v>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="6"/>
+      <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
+      <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="L5" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/addons/custom/purchase_request/static/src/xlsx/template_pr.xlsx
+++ b/addons/custom/purchase_request/static/src/xlsx/template_pr.xlsx
@@ -1,19 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\odoo1_6\erp_forlife\custom_addons\purchase_request\static\src\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECT\erp_forlife\custom_addons\purchase_request\static\src\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C670069D-6CF4-4AD1-8CBA-64A74CBB6664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32025" yWindow="1200" windowWidth="25545" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31050" yWindow="4395" windowWidth="22425" windowHeight="11280"/>
   </bookViews>
   <sheets>
-    <sheet name="Yêu cầu mua hàng" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,78 +24,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
-  <si>
-    <t>Người yêu cầu</t>
-  </si>
-  <si>
-    <t>Phòng/ban</t>
-  </si>
-  <si>
-    <t>Mã vụ việc</t>
-  </si>
-  <si>
-    <t>Lệnh sản xuất</t>
-  </si>
-  <si>
-    <t>Trung tâm chi phí</t>
-  </si>
-  <si>
-    <t>Ngày yêu cầu</t>
-  </si>
-  <si>
-    <t>Hạn xử lý</t>
-  </si>
-  <si>
-    <t>Order Lines/Sản phẩm</t>
-  </si>
-  <si>
-    <t>Order Lines/Mô tả</t>
-  </si>
-  <si>
-    <t>Order Lines/Loại hàng hóa</t>
-  </si>
-  <si>
-    <t>Order Lines/Mô tả tài sản</t>
-  </si>
-  <si>
-    <t>Order Lines/Số lượng đặt mua</t>
-  </si>
-  <si>
-    <t>Order Lines/Số lượng quy đổi</t>
-  </si>
-  <si>
-    <t>Order Lines/Đơn vị mua</t>
-  </si>
-  <si>
-    <t>Order Lines/Số lượng</t>
-  </si>
-  <si>
-    <t>Order Lines/Nhà cung cấp</t>
-  </si>
-  <si>
-    <t>Order Lines/Lệnh sản xuất</t>
-  </si>
-  <si>
-    <t>Order Lines/Trung tâm chi phí</t>
-  </si>
-  <si>
-    <t>Order Lines/Ngày yêu cầu</t>
-  </si>
-  <si>
-    <t>Order Lines/Hạn xử lý</t>
-  </si>
-  <si>
-    <t>Order Lines/Số lượng đã đặt</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>Request date</t>
+  </si>
+  <si>
+    <t>Expected Arrival</t>
+  </si>
+  <si>
+    <t>Order Lines/Product</t>
+  </si>
+  <si>
+    <t>Order Lines/Asset description</t>
+  </si>
+  <si>
+    <t>Order Lines/Quantity Purchase</t>
+  </si>
+  <si>
+    <t>Order Lines/Exchange Quantity</t>
+  </si>
+  <si>
+    <t>Order Lines/UOM Purchase</t>
+  </si>
+  <si>
+    <t>Order Lines/Production Order Code</t>
+  </si>
+  <si>
+    <t>Order Lines/Request date</t>
+  </si>
+  <si>
+    <t>Order Lines/Quantity Order</t>
+  </si>
+  <si>
+    <t>User request</t>
+  </si>
+  <si>
+    <t>Order Lines/Type</t>
+  </si>
+  <si>
+    <t>Order Lines/Vendor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yyyy;@"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -113,10 +88,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C5700"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -128,13 +102,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF70AD47"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FF70AD47"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -147,36 +122,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -488,120 +446,99 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21" style="6" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="24.5703125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="8" customWidth="1"/>
-    <col min="7" max="7" width="15" style="9" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" customWidth="1"/>
-    <col min="10" max="10" width="24.5703125" customWidth="1"/>
-    <col min="11" max="11" width="23.140625" customWidth="1"/>
-    <col min="12" max="12" width="28.85546875" customWidth="1"/>
-    <col min="13" max="13" width="27" customWidth="1"/>
-    <col min="14" max="14" width="23.28515625" customWidth="1"/>
-    <col min="15" max="15" width="19.5703125" customWidth="1"/>
-    <col min="16" max="17" width="23.85546875" customWidth="1"/>
-    <col min="18" max="18" width="30.42578125" customWidth="1"/>
-    <col min="19" max="19" width="25.28515625" customWidth="1"/>
-    <col min="20" max="20" width="21.28515625" customWidth="1"/>
-    <col min="21" max="21" width="28.140625" customWidth="1"/>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="6" width="24.5703125" customWidth="1"/>
+    <col min="7" max="7" width="27" customWidth="1"/>
+    <col min="8" max="8" width="36.5703125" customWidth="1"/>
+    <col min="9" max="9" width="21.5703125" customWidth="1"/>
+    <col min="10" max="10" width="25.28515625" customWidth="1"/>
+    <col min="11" max="11" width="27.5703125" customWidth="1"/>
+    <col min="12" max="12" width="25" customWidth="1"/>
+    <col min="13" max="13" width="33.28515625" customWidth="1"/>
+    <col min="14" max="14" width="28.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>20</v>
-      </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
-      <c r="L2" s="3"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="6"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="L3" s="3"/>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
-      <c r="L4" s="3"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="L5" s="3"/>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>